--- a/Code/Results/Cases/Case_9_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001206976645397</v>
+        <v>1.0010701020102</v>
       </c>
       <c r="D2">
-        <v>1.02658322188508</v>
+        <v>1.025954453757299</v>
       </c>
       <c r="E2">
-        <v>1.007491535347561</v>
+        <v>1.007380537193246</v>
       </c>
       <c r="F2">
-        <v>1.033083123346669</v>
+        <v>1.032697274057697</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046887313912581</v>
+        <v>1.046635332873657</v>
       </c>
       <c r="J2">
-        <v>1.023351647082245</v>
+        <v>1.023218853551584</v>
       </c>
       <c r="K2">
-        <v>1.037684227947795</v>
+        <v>1.037063666642373</v>
       </c>
       <c r="L2">
-        <v>1.018847478575124</v>
+        <v>1.018737998185624</v>
       </c>
       <c r="M2">
-        <v>1.044100023251645</v>
+        <v>1.043719129737951</v>
       </c>
       <c r="N2">
-        <v>1.0116544940624</v>
+        <v>1.013333132267105</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043474594789375</v>
+        <v>1.043173144286395</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037716280360637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037286272909695</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021913555140169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004705397173393</v>
+        <v>1.004445256054906</v>
       </c>
       <c r="D3">
-        <v>1.028890860976203</v>
+        <v>1.028104310748134</v>
       </c>
       <c r="E3">
-        <v>1.010216064124811</v>
+        <v>1.009997139357576</v>
       </c>
       <c r="F3">
-        <v>1.035488073623588</v>
+        <v>1.034990605880225</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047452835447926</v>
+        <v>1.047131464835089</v>
       </c>
       <c r="J3">
-        <v>1.025068605078655</v>
+        <v>1.024815468108056</v>
       </c>
       <c r="K3">
-        <v>1.039166955738339</v>
+        <v>1.038389789594553</v>
       </c>
       <c r="L3">
-        <v>1.020719876202245</v>
+        <v>1.020503683186664</v>
       </c>
       <c r="M3">
-        <v>1.045686153809928</v>
+        <v>1.045194525899267</v>
       </c>
       <c r="N3">
-        <v>1.012240259691688</v>
+        <v>1.013765785253872</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044729904547105</v>
+        <v>1.04434081618088</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038762031722579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038221014809036</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022170595565643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006933168859545</v>
+        <v>1.006595372948915</v>
       </c>
       <c r="D4">
-        <v>1.030363836806735</v>
+        <v>1.029477336842029</v>
       </c>
       <c r="E4">
-        <v>1.011956956982571</v>
+        <v>1.011669955112815</v>
       </c>
       <c r="F4">
-        <v>1.037025113843947</v>
+        <v>1.036457062583658</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047803996073692</v>
+        <v>1.047438632661862</v>
       </c>
       <c r="J4">
-        <v>1.026161170967453</v>
+        <v>1.02583185995019</v>
       </c>
       <c r="K4">
-        <v>1.04010910458097</v>
+        <v>1.039232551639467</v>
       </c>
       <c r="L4">
-        <v>1.021913182628664</v>
+        <v>1.02162954522898</v>
       </c>
       <c r="M4">
-        <v>1.046696307114848</v>
+        <v>1.046134527026894</v>
       </c>
       <c r="N4">
-        <v>1.012612865876268</v>
+        <v>1.014041153454201</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045529368067342</v>
+        <v>1.045084759733326</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039429109167328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038817899229786</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022331652651002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00786420053408</v>
+        <v>1.007494129895732</v>
       </c>
       <c r="D5">
-        <v>1.030982205786391</v>
+        <v>1.030054098888164</v>
       </c>
       <c r="E5">
-        <v>1.012686250310596</v>
+        <v>1.01237093386291</v>
       </c>
       <c r="F5">
-        <v>1.037669533150624</v>
+        <v>1.037072117537753</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047949961281305</v>
+        <v>1.047566266153635</v>
       </c>
       <c r="J5">
-        <v>1.026618944661832</v>
+        <v>1.026257894167052</v>
       </c>
       <c r="K5">
-        <v>1.040504949748599</v>
+        <v>1.039586982937243</v>
       </c>
       <c r="L5">
-        <v>1.022413114722486</v>
+        <v>1.02210139589569</v>
       </c>
       <c r="M5">
-        <v>1.047119871517432</v>
+        <v>1.046528877737759</v>
       </c>
       <c r="N5">
-        <v>1.012769205495792</v>
+        <v>1.014156764087076</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045864588498574</v>
+        <v>1.045396859845399</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039716178476442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03907639550947</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022399274970412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008023500046623</v>
+        <v>1.007647900757781</v>
       </c>
       <c r="D6">
-        <v>1.031090463043908</v>
+        <v>1.030155293977724</v>
       </c>
       <c r="E6">
-        <v>1.012811530381923</v>
+        <v>1.012491359160739</v>
       </c>
       <c r="F6">
-        <v>1.037780788045107</v>
+        <v>1.037178377467954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047976503050287</v>
+        <v>1.047589683144056</v>
       </c>
       <c r="J6">
-        <v>1.026698932205063</v>
+        <v>1.02633244112377</v>
       </c>
       <c r="K6">
-        <v>1.040575832368645</v>
+        <v>1.039650834312368</v>
       </c>
       <c r="L6">
-        <v>1.022499898879259</v>
+        <v>1.022183363882268</v>
       </c>
       <c r="M6">
-        <v>1.04719404757936</v>
+        <v>1.046598083227118</v>
       </c>
       <c r="N6">
-        <v>1.012796833734723</v>
+        <v>1.014177237065094</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045923293443204</v>
+        <v>1.045451630979287</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03977504600554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039131159046773</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022411966732509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006954950653478</v>
+        <v>1.006623635408497</v>
       </c>
       <c r="D7">
-        <v>1.030384742037819</v>
+        <v>1.029502445785993</v>
       </c>
       <c r="E7">
-        <v>1.011975139973328</v>
+        <v>1.011693947741064</v>
       </c>
       <c r="F7">
-        <v>1.037042640625704</v>
+        <v>1.036478166610391</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047811972831678</v>
+        <v>1.047448595401421</v>
       </c>
       <c r="J7">
-        <v>1.026176379682823</v>
+        <v>1.025853382948016</v>
       </c>
       <c r="K7">
-        <v>1.040126892347327</v>
+        <v>1.039254492105263</v>
       </c>
       <c r="L7">
-        <v>1.021928198875635</v>
+        <v>1.02165030173361</v>
       </c>
       <c r="M7">
-        <v>1.046710782048849</v>
+        <v>1.04615253735438</v>
       </c>
       <c r="N7">
-        <v>1.012618913083788</v>
+        <v>1.014073529196797</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045540823927791</v>
+        <v>1.045099013609923</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03946180681109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038855529449036</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022337865009324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002408535117124</v>
+        <v>1.00225150370997</v>
       </c>
       <c r="D8">
-        <v>1.027382999104111</v>
+        <v>1.026715698020276</v>
       </c>
       <c r="E8">
-        <v>1.008427515831839</v>
+        <v>1.008299355475448</v>
       </c>
       <c r="F8">
-        <v>1.033910976429117</v>
+        <v>1.033499771665235</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047089002000113</v>
+        <v>1.046820590195219</v>
       </c>
       <c r="J8">
-        <v>1.023947100842496</v>
+        <v>1.023794595617954</v>
       </c>
       <c r="K8">
-        <v>1.038204397888281</v>
+        <v>1.037545550973865</v>
       </c>
       <c r="L8">
-        <v>1.019494528434409</v>
+        <v>1.019368068137345</v>
       </c>
       <c r="M8">
-        <v>1.044650388241079</v>
+        <v>1.044244309838639</v>
       </c>
       <c r="N8">
-        <v>1.011858789936257</v>
+        <v>1.013568689905368</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04391016985963</v>
+        <v>1.043588787471169</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038107011445239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037652196696959</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022010952642678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.994095686841908</v>
+        <v>0.9942402196708395</v>
       </c>
       <c r="D9">
-        <v>1.021913678654568</v>
+        <v>1.021626793895656</v>
       </c>
       <c r="E9">
-        <v>1.001987288718895</v>
+        <v>1.002122643662799</v>
       </c>
       <c r="F9">
-        <v>1.028227080664868</v>
+        <v>1.02808612446162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045690647196023</v>
+        <v>1.045589453749062</v>
       </c>
       <c r="J9">
-        <v>1.019858678390876</v>
+        <v>1.019998023076988</v>
       </c>
       <c r="K9">
-        <v>1.034660952329353</v>
+        <v>1.034378472373975</v>
       </c>
       <c r="L9">
-        <v>1.015048205625367</v>
+        <v>1.015181376074572</v>
       </c>
       <c r="M9">
-        <v>1.040878211548094</v>
+        <v>1.040739385460897</v>
       </c>
       <c r="N9">
-        <v>1.010462298995203</v>
+        <v>1.012548416973055</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040924752832798</v>
+        <v>1.040814881349133</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035598376958008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03540940173678</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021382918753311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.988391653645963</v>
+        <v>0.9887779396493875</v>
       </c>
       <c r="D10">
-        <v>1.018207000332855</v>
+        <v>1.018203895297657</v>
       </c>
       <c r="E10">
-        <v>0.9976090334335209</v>
+        <v>0.9979554938008762</v>
       </c>
       <c r="F10">
-        <v>1.024435182913162</v>
+        <v>1.024499328839159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044708349674687</v>
+        <v>1.044732093851381</v>
       </c>
       <c r="J10">
-        <v>1.017073530908129</v>
+        <v>1.017443983539495</v>
       </c>
       <c r="K10">
-        <v>1.032255123123591</v>
+        <v>1.032252071588274</v>
       </c>
       <c r="L10">
-        <v>1.012021592128348</v>
+        <v>1.012361760818216</v>
       </c>
       <c r="M10">
-        <v>1.038376836425796</v>
+        <v>1.038439894485851</v>
       </c>
       <c r="N10">
-        <v>1.009514733614826</v>
+        <v>1.011975765933259</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038996486641613</v>
+        <v>1.039046389863812</v>
       </c>
       <c r="Q10">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R10">
-        <v>1.033914142028377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033924418663673</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020957414686133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9862308905470657</v>
+        <v>0.9867352404510026</v>
       </c>
       <c r="D11">
-        <v>1.016987907863915</v>
+        <v>1.01710137415346</v>
       </c>
       <c r="E11">
-        <v>0.9960083260758623</v>
+        <v>0.9964572790496875</v>
       </c>
       <c r="F11">
-        <v>1.023595040018217</v>
+        <v>1.023746712589006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04449135035713</v>
+        <v>1.044563905622332</v>
       </c>
       <c r="J11">
-        <v>1.016187915072962</v>
+        <v>1.016670453631582</v>
       </c>
       <c r="K11">
-        <v>1.031596413810992</v>
+        <v>1.031707832512409</v>
       </c>
       <c r="L11">
-        <v>1.011005914175313</v>
+        <v>1.0114463165876</v>
       </c>
       <c r="M11">
-        <v>1.038085296520777</v>
+        <v>1.038234277822952</v>
       </c>
       <c r="N11">
-        <v>1.009248618413177</v>
+        <v>1.012020471096017</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039201610004608</v>
+        <v>1.039319452419692</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033481314623335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033575737015038</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020890185982174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9855436688189526</v>
+        <v>0.9860811366606267</v>
       </c>
       <c r="D12">
-        <v>1.016668424275027</v>
+        <v>1.016811656254057</v>
       </c>
       <c r="E12">
-        <v>0.9955214998468869</v>
+        <v>0.995998307934467</v>
       </c>
       <c r="F12">
-        <v>1.023570628798389</v>
+        <v>1.023744972235967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044485297327806</v>
+        <v>1.044568313113554</v>
       </c>
       <c r="J12">
-        <v>1.015972702895954</v>
+        <v>1.01648647698331</v>
       </c>
       <c r="K12">
-        <v>1.031483102454464</v>
+        <v>1.031623706757226</v>
       </c>
       <c r="L12">
-        <v>1.010735006778992</v>
+        <v>1.011202577729787</v>
       </c>
       <c r="M12">
-        <v>1.038259768768064</v>
+        <v>1.038430969714226</v>
       </c>
       <c r="N12">
-        <v>1.009203727606114</v>
+        <v>1.012092338405153</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039665704654417</v>
+        <v>1.039801076791526</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033401199530869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033516258427137</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020902566042166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9859574311729055</v>
+        <v>0.9864535391491905</v>
       </c>
       <c r="D13">
-        <v>1.017037431072934</v>
+        <v>1.017137222099067</v>
       </c>
       <c r="E13">
-        <v>0.9958685316844105</v>
+        <v>0.9963076657992969</v>
       </c>
       <c r="F13">
-        <v>1.024195547332229</v>
+        <v>1.024337309173197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044654321121498</v>
+        <v>1.04471530754352</v>
       </c>
       <c r="J13">
-        <v>1.016273377975806</v>
+        <v>1.016747720645951</v>
       </c>
       <c r="K13">
-        <v>1.031802378158657</v>
+        <v>1.031900346203577</v>
       </c>
       <c r="L13">
-        <v>1.011031012896671</v>
+        <v>1.011461675676054</v>
       </c>
       <c r="M13">
-        <v>1.038830900762219</v>
+        <v>1.038970119845072</v>
       </c>
       <c r="N13">
-        <v>1.00933206732264</v>
+        <v>1.012158150335188</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040393700313463</v>
+        <v>1.040503756110395</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03362444124102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03370910861985</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020981889897341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867468120417858</v>
+        <v>0.9871809031975627</v>
       </c>
       <c r="D14">
-        <v>1.017608845451323</v>
+        <v>1.017645654116336</v>
       </c>
       <c r="E14">
-        <v>0.9964900589322231</v>
+        <v>0.9968738480855721</v>
       </c>
       <c r="F14">
-        <v>1.024927182947073</v>
+        <v>1.02502163027128</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044851997577185</v>
+        <v>1.044883314924347</v>
       </c>
       <c r="J14">
-        <v>1.016717983835763</v>
+        <v>1.017133301297614</v>
       </c>
       <c r="K14">
-        <v>1.032222697173835</v>
+        <v>1.032258841719665</v>
       </c>
       <c r="L14">
-        <v>1.011495528758668</v>
+        <v>1.011872007451734</v>
       </c>
       <c r="M14">
-        <v>1.039410210668523</v>
+        <v>1.03950298547262</v>
       </c>
       <c r="N14">
-        <v>1.009500642438565</v>
+        <v>1.012202941914581</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041024793919259</v>
+        <v>1.041098124586561</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033923048871278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033964137872111</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021068199488268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9871832899448755</v>
+        <v>0.9875864696379688</v>
       </c>
       <c r="D15">
-        <v>1.017906074272047</v>
+        <v>1.017911719076912</v>
       </c>
       <c r="E15">
-        <v>0.9968276042241005</v>
+        <v>0.9971840722281388</v>
       </c>
       <c r="F15">
-        <v>1.025261767780097</v>
+        <v>1.025332827218338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044942648652922</v>
+        <v>1.044959792854597</v>
       </c>
       <c r="J15">
-        <v>1.016944771257119</v>
+        <v>1.017330665915376</v>
       </c>
       <c r="K15">
-        <v>1.032427930839686</v>
+        <v>1.032433474566617</v>
       </c>
       <c r="L15">
-        <v>1.011737334422925</v>
+        <v>1.012087064769068</v>
       </c>
       <c r="M15">
-        <v>1.03965313439597</v>
+        <v>1.039722945074155</v>
       </c>
       <c r="N15">
-        <v>1.009581791893985</v>
+        <v>1.012217245642133</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041254302869254</v>
+        <v>1.041309480877578</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034074037554551</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034094058326123</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021106497504636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9895169655257339</v>
+        <v>0.9897765026638492</v>
       </c>
       <c r="D16">
-        <v>1.019410682164669</v>
+        <v>1.019269538024042</v>
       </c>
       <c r="E16">
-        <v>0.9986071554002962</v>
+        <v>0.9988379135394679</v>
       </c>
       <c r="F16">
-        <v>1.026779135600044</v>
+        <v>1.026740718709336</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045343881945119</v>
+        <v>1.04529662284175</v>
       </c>
       <c r="J16">
-        <v>1.018074627522311</v>
+        <v>1.018323593011148</v>
       </c>
       <c r="K16">
-        <v>1.033402421775709</v>
+        <v>1.03326369547067</v>
       </c>
       <c r="L16">
-        <v>1.012964851865517</v>
+        <v>1.013191442018104</v>
       </c>
       <c r="M16">
-        <v>1.040645842127144</v>
+        <v>1.040608071119979</v>
       </c>
       <c r="N16">
-        <v>1.009961332408325</v>
+        <v>1.012275108252964</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042000255929166</v>
+        <v>1.041970401069055</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034766212044974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034684525786147</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021269187948983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9908962664211625</v>
+        <v>0.991086375411396</v>
       </c>
       <c r="D17">
-        <v>1.020267243144793</v>
+        <v>1.020052319812304</v>
       </c>
       <c r="E17">
-        <v>0.9996503173185299</v>
+        <v>0.9998208491553113</v>
       </c>
       <c r="F17">
-        <v>1.027556151018217</v>
+        <v>1.027463361580608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04554565750496</v>
+        <v>1.045466995723508</v>
       </c>
       <c r="J17">
-        <v>1.018708839547848</v>
+        <v>1.018891453658834</v>
       </c>
       <c r="K17">
-        <v>1.033929007057623</v>
+        <v>1.033717662700791</v>
       </c>
       <c r="L17">
-        <v>1.013664480518042</v>
+        <v>1.013832020264133</v>
       </c>
       <c r="M17">
-        <v>1.041097676893567</v>
+        <v>1.041006404333587</v>
       </c>
       <c r="N17">
-        <v>1.010164212081412</v>
+        <v>1.01232520836869</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042228485753623</v>
+        <v>1.042156335166437</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035141121129889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03500833744007</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021349471075123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9915733784745959</v>
+        <v>0.991742073361133</v>
       </c>
       <c r="D18">
-        <v>1.02062314952392</v>
+        <v>1.020384388727609</v>
       </c>
       <c r="E18">
-        <v>1.000144256205528</v>
+        <v>1.000296959510274</v>
       </c>
       <c r="F18">
-        <v>1.027722123241487</v>
+        <v>1.027612084082591</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045583647929784</v>
+        <v>1.045496343963242</v>
       </c>
       <c r="J18">
-        <v>1.018958557309955</v>
+        <v>1.019120726681129</v>
       </c>
       <c r="K18">
-        <v>1.034095148868633</v>
+        <v>1.033860299215813</v>
       </c>
       <c r="L18">
-        <v>1.013960500063981</v>
+        <v>1.01411056901432</v>
       </c>
       <c r="M18">
-        <v>1.041078899474321</v>
+        <v>1.040970630770806</v>
       </c>
       <c r="N18">
-        <v>1.010227104571083</v>
+        <v>1.012330540978779</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041976202724703</v>
+        <v>1.041890598949399</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035246935789609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035096399310585</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021357536690408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9916214950257403</v>
+        <v>0.9918059662843481</v>
       </c>
       <c r="D19">
-        <v>1.020536665337179</v>
+        <v>1.020315094069012</v>
       </c>
       <c r="E19">
-        <v>1.000147206489731</v>
+        <v>1.00031483199532</v>
       </c>
       <c r="F19">
-        <v>1.027336046529375</v>
+        <v>1.027238822828951</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045480825025528</v>
+        <v>1.045403459795732</v>
       </c>
       <c r="J19">
-        <v>1.018868309585543</v>
+        <v>1.019045688021934</v>
       </c>
       <c r="K19">
-        <v>1.033947386294768</v>
+        <v>1.033729425924336</v>
       </c>
       <c r="L19">
-        <v>1.013898869652851</v>
+        <v>1.014063618977845</v>
       </c>
       <c r="M19">
-        <v>1.0406369305962</v>
+        <v>1.040541264302506</v>
       </c>
       <c r="N19">
-        <v>1.010169609961452</v>
+        <v>1.012279832399279</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04130159835062</v>
+        <v>1.041225934132863</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035148867313253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035010896398904</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021303865160623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.989892856051215</v>
+        <v>0.9901943038290638</v>
       </c>
       <c r="D20">
-        <v>1.019197740449546</v>
+        <v>1.019105331178039</v>
       </c>
       <c r="E20">
-        <v>0.9987623329593985</v>
+        <v>0.9990341802287662</v>
       </c>
       <c r="F20">
-        <v>1.02544069626998</v>
+        <v>1.025438519119526</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044982112613212</v>
+        <v>1.044965821438477</v>
       </c>
       <c r="J20">
-        <v>1.017819028777141</v>
+        <v>1.018108522761555</v>
       </c>
       <c r="K20">
-        <v>1.03291121633686</v>
+        <v>1.032820354210777</v>
       </c>
       <c r="L20">
-        <v>1.012826980217641</v>
+        <v>1.013094033699029</v>
       </c>
       <c r="M20">
-        <v>1.039050481402257</v>
+        <v>1.039048340129487</v>
       </c>
       <c r="N20">
-        <v>1.009771141717456</v>
+        <v>1.012058858221939</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039519062746219</v>
+        <v>1.039517368153922</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034420180489131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034372464649745</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021074186223976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9855482137407617</v>
+        <v>0.9861402280232708</v>
       </c>
       <c r="D21">
-        <v>1.01634538156842</v>
+        <v>1.01654630690171</v>
       </c>
       <c r="E21">
-        <v>0.9954304089681997</v>
+        <v>0.9959587818941524</v>
       </c>
       <c r="F21">
-        <v>1.02244913541729</v>
+        <v>1.02266739758577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044185488544986</v>
+        <v>1.04430183030143</v>
       </c>
       <c r="J21">
-        <v>1.015662835977705</v>
+        <v>1.016229071331287</v>
       </c>
       <c r="K21">
-        <v>1.031023564381353</v>
+        <v>1.0312208416754</v>
       </c>
       <c r="L21">
-        <v>1.010498873904796</v>
+        <v>1.011017123005896</v>
       </c>
       <c r="M21">
-        <v>1.037017328141606</v>
+        <v>1.037231688782577</v>
       </c>
       <c r="N21">
-        <v>1.009030836288397</v>
+        <v>1.011964687157636</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037869117789694</v>
+        <v>1.038038770466608</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033088767972214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033245108810044</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020749728598996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9827796935278741</v>
+        <v>0.9835555562423168</v>
       </c>
       <c r="D22">
-        <v>1.014538148966527</v>
+        <v>1.014924954124456</v>
       </c>
       <c r="E22">
-        <v>0.9933167554501913</v>
+        <v>0.9940074560664041</v>
       </c>
       <c r="F22">
-        <v>1.020585675976925</v>
+        <v>1.020943876400296</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043674887291901</v>
+        <v>1.043875410949805</v>
       </c>
       <c r="J22">
-        <v>1.014294761735714</v>
+        <v>1.015034873422838</v>
       </c>
       <c r="K22">
-        <v>1.029827001027837</v>
+        <v>1.030206431773731</v>
       </c>
       <c r="L22">
-        <v>1.009021781606219</v>
+        <v>1.009698568545428</v>
       </c>
       <c r="M22">
-        <v>1.035760067500412</v>
+        <v>1.036111543869023</v>
       </c>
       <c r="N22">
-        <v>1.008561924521291</v>
+        <v>1.011898197012302</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03687407594546</v>
+        <v>1.037152247279651</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032229203894718</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032513039689273</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020542881803797</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9842432630992929</v>
+        <v>0.98490992687034</v>
       </c>
       <c r="D23">
-        <v>1.015487351738714</v>
+        <v>1.015767083336055</v>
       </c>
       <c r="E23">
-        <v>0.9944320817385458</v>
+        <v>0.9950261177345279</v>
       </c>
       <c r="F23">
-        <v>1.021567799127695</v>
+        <v>1.021844692810201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043941698636172</v>
+        <v>1.044093504990193</v>
       </c>
       <c r="J23">
-        <v>1.015013885527627</v>
+        <v>1.015650730423095</v>
       </c>
       <c r="K23">
-        <v>1.030452264994107</v>
+        <v>1.030726798628085</v>
       </c>
       <c r="L23">
-        <v>1.009799263105305</v>
+        <v>1.010381643532914</v>
       </c>
       <c r="M23">
-        <v>1.036420561076473</v>
+        <v>1.036692388940081</v>
       </c>
       <c r="N23">
-        <v>1.008807459693307</v>
+        <v>1.011888421637468</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037396814781214</v>
+        <v>1.037611949208725</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032661635620392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032870362487385</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020646984236534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9899158524536675</v>
+        <v>0.9902183536175613</v>
       </c>
       <c r="D24">
-        <v>1.019186601937208</v>
+        <v>1.019095238322222</v>
       </c>
       <c r="E24">
-        <v>0.9987734233995104</v>
+        <v>0.9990463464404004</v>
       </c>
       <c r="F24">
-        <v>1.025394413953235</v>
+        <v>1.025393074327698</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044964203153193</v>
+        <v>1.044948763951667</v>
       </c>
       <c r="J24">
-        <v>1.017807686533945</v>
+        <v>1.018098209833607</v>
       </c>
       <c r="K24">
-        <v>1.032884953807722</v>
+        <v>1.032795117911105</v>
       </c>
       <c r="L24">
-        <v>1.012822113391397</v>
+        <v>1.013090230027031</v>
       </c>
       <c r="M24">
-        <v>1.038989783437707</v>
+        <v>1.038988465862401</v>
       </c>
       <c r="N24">
-        <v>1.009762763286916</v>
+        <v>1.012048822134609</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039430187929004</v>
+        <v>1.039429145154938</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034374152983093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034324494378607</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021063341830279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962953430795327</v>
+        <v>0.996350083391866</v>
       </c>
       <c r="D25">
-        <v>1.023367113267457</v>
+        <v>1.022972898369117</v>
       </c>
       <c r="E25">
-        <v>1.003687539321868</v>
+        <v>1.003744305345999</v>
       </c>
       <c r="F25">
-        <v>1.02972922179443</v>
+        <v>1.029511047411314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046075545375332</v>
+        <v>1.045926891150402</v>
       </c>
       <c r="J25">
-        <v>1.020948030173868</v>
+        <v>1.021000909246145</v>
       </c>
       <c r="K25">
-        <v>1.035613199781428</v>
+        <v>1.035224757768145</v>
       </c>
       <c r="L25">
-        <v>1.016228879434287</v>
+        <v>1.016284772547367</v>
       </c>
       <c r="M25">
-        <v>1.041882916031312</v>
+        <v>1.041667886080067</v>
       </c>
       <c r="N25">
-        <v>1.010835999462053</v>
+        <v>1.01278868973433</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041719908162086</v>
+        <v>1.041549726640393</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03630030239418</v>
+        <v>1.036039204287152</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021554348304735</v>
       </c>
     </row>
   </sheetData>
